--- a/data/trans_orig/P25F_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P25F_2023-Provincia-trans_orig.xlsx
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4822</v>
+        <v>4786</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1073517042015963</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4307615256878356</v>
+        <v>0.4275636428687911</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -778,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>6490</v>
+        <v>5899</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09878220845309192</v>
@@ -787,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.533497948900817</v>
+        <v>0.4849382612060473</v>
       </c>
     </row>
     <row r="5">
@@ -804,19 +804,19 @@
         <v>6387</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2133</v>
+        <v>2107</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>10276</v>
+        <v>10098</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.570598568709773</v>
+        <v>0.5705985687097729</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1905508810218616</v>
+        <v>0.1882274585863349</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9180054324875088</v>
+        <v>0.9020543590605873</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -838,19 +838,19 @@
         <v>6387</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2056</v>
+        <v>1992</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>10403</v>
+        <v>10672</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5250497621488767</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1689976953200482</v>
+        <v>0.1637783597409282</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8551717415568393</v>
+        <v>0.8772297615630601</v>
       </c>
     </row>
     <row r="6">
@@ -867,19 +867,19 @@
         <v>3605</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>524</v>
+        <v>871</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7581</v>
+        <v>9037</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.3220497270886308</v>
+        <v>0.3220497270886307</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.04682652203971703</v>
+        <v>0.07784389331968461</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6772322780463788</v>
+        <v>0.8073489652021586</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>0</v>
@@ -901,19 +901,19 @@
         <v>3605</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>935</v>
+        <v>755</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>7818</v>
+        <v>8663</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2963416697492675</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.07689775081128226</v>
+        <v>0.06204429351365957</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.6426433631567937</v>
+        <v>0.7121448287447449</v>
       </c>
     </row>
     <row r="7">
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3989</v>
+        <v>3308</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.07982635964876393</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3279077285020868</v>
+        <v>0.2718936800889648</v>
       </c>
     </row>
     <row r="9">
@@ -1123,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>3020</v>
+        <v>2724</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1095341748191992</v>
@@ -1132,7 +1132,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5427394511465256</v>
+        <v>0.4894779701275184</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1</v>
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>3677</v>
+        <v>3817</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01819395730007134</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1097522581622062</v>
+        <v>0.1139256563288808</v>
       </c>
     </row>
     <row r="11">
@@ -1170,19 +1170,19 @@
         <v>17148</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>8216</v>
+        <v>8395</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>24185</v>
+        <v>24355</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.6137700798857351</v>
+        <v>0.613770079885735</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2940766105464525</v>
+        <v>0.3004792031014845</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8656603882722077</v>
+        <v>0.8717464242282484</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>0</v>
@@ -1204,19 +1204,19 @@
         <v>17148</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>8885</v>
+        <v>7654</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>26165</v>
+        <v>25173</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5118210156422246</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2652089665588335</v>
+        <v>0.2284504541551687</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7809749056501949</v>
+        <v>0.7513534559173444</v>
       </c>
     </row>
     <row r="12">
@@ -1236,7 +1236,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>13404</v>
+        <v>13736</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1721722795755232</v>
@@ -1245,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4797882633519933</v>
+        <v>0.4916760245913436</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>0</v>
@@ -1270,7 +1270,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>14521</v>
+        <v>14549</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1435739438686662</v>
@@ -1279,7 +1279,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4334339248855407</v>
+        <v>0.4342724208784035</v>
       </c>
     </row>
     <row r="13">
@@ -1299,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>13902</v>
+        <v>12546</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1184072832491849</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.49759845665828</v>
+        <v>0.4490777780782443</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>13900</v>
+        <v>13985</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.09873947583648397</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4148904422074475</v>
+        <v>0.417427646320504</v>
       </c>
     </row>
     <row r="14">
@@ -1362,16 +1362,16 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>9314</v>
+        <v>9485</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.09565035728955704</v>
+        <v>0.09565035728955702</v>
       </c>
       <c r="H14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3333889074300693</v>
+        <v>0.3395192569312809</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>5</v>
@@ -1380,7 +1380,7 @@
         <v>4955</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2492</v>
+        <v>2840</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>5565</v>
@@ -1389,7 +1389,7 @@
         <v>0.8904658251808008</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.447802773512157</v>
+        <v>0.5102646974878047</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -1401,19 +1401,19 @@
         <v>7628</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2660</v>
+        <v>3013</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>15139</v>
+        <v>16236</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2276716073525538</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.07938895684836246</v>
+        <v>0.08993248247892902</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4518702932943022</v>
+        <v>0.4846119528011498</v>
       </c>
     </row>
     <row r="15">
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>2486</v>
+        <v>2088</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2707954911556131</v>
@@ -1624,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>1</v>
+        <v>0.8400858228963102</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1</v>
@@ -1636,16 +1636,16 @@
         <v>0</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>3375</v>
+        <v>4082</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.08719418369176821</v>
+        <v>0.08719418369176822</v>
       </c>
       <c r="V18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4371343178675141</v>
+        <v>0.5286679939371696</v>
       </c>
     </row>
     <row r="19">
@@ -1699,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>5827</v>
+        <v>5101</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.284944310262001</v>
@@ -1708,7 +1708,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.7546580782950199</v>
+        <v>0.6606612486047962</v>
       </c>
     </row>
     <row r="20">
@@ -1746,7 +1746,7 @@
         <v>1813</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0</v>
+        <v>398</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>2486</v>
@@ -1755,7 +1755,7 @@
         <v>0.7292045088443869</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0</v>
+        <v>0.159914177103651</v>
       </c>
       <c r="P20" s="6" t="n">
         <v>1</v>
@@ -1767,19 +1767,19 @@
         <v>4848</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1897</v>
+        <v>2031</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>7112</v>
+        <v>7037</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.6278615060462307</v>
+        <v>0.6278615060462308</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2457134998192373</v>
+        <v>0.2631078462860769</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9211837889721618</v>
+        <v>0.9114430002425419</v>
       </c>
     </row>
     <row r="21">
@@ -1939,19 +1939,19 @@
         <v>5779</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1953</v>
+        <v>1648</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>9121</v>
+        <v>9137</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.5633173164155498</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1903535986088543</v>
+        <v>0.1606092300394176</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8890628536096413</v>
+        <v>0.890611916336977</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6</v>
@@ -1960,19 +1960,19 @@
         <v>12013</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5232</v>
+        <v>5050</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>17219</v>
+        <v>17120</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.6234942120633521</v>
+        <v>0.6234942120633522</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2715393279938914</v>
+        <v>0.2620842541882837</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8936470324575577</v>
+        <v>0.8885437973958087</v>
       </c>
     </row>
     <row r="24">
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>6418</v>
+        <v>6568</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1648637958983043</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.625614841552441</v>
+        <v>0.64020683935297</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1</v>
@@ -2026,16 +2026,16 @@
         <v>0</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>7571</v>
+        <v>7294</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.08777615220133338</v>
+        <v>0.08777615220133339</v>
       </c>
       <c r="V24" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3929420722469064</v>
+        <v>0.3785639385828748</v>
       </c>
     </row>
     <row r="25">
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>3805</v>
+        <v>4343</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.06411676707337505</v>
@@ -2077,7 +2077,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3709083553833439</v>
+        <v>0.4233706065268933</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1</v>
@@ -2089,7 +2089,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>3791</v>
+        <v>4132</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03413680410926347</v>
@@ -2098,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1967716240423986</v>
+        <v>0.2144627570230056</v>
       </c>
     </row>
     <row r="26">
@@ -2139,7 +2139,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>6752</v>
+        <v>6855</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2077021206127708</v>
@@ -2148,7 +2148,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.658156288355518</v>
+        <v>0.668158971288295</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>3</v>
@@ -2157,19 +2157,19 @@
         <v>4905</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>904</v>
+        <v>684</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>12524</v>
+        <v>11521</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2545928316260511</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.04691866627605432</v>
+        <v>0.03549276235786743</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6499747307189273</v>
+        <v>0.5979144631857259</v>
       </c>
     </row>
     <row r="27">
@@ -2277,7 +2277,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1974</v>
+        <v>1529</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1396357661203922</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.6048550627526927</v>
+        <v>0.4685737047812129</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1</v>
@@ -2298,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>2199</v>
+        <v>2046</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.09521030897696156</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.4596131383618552</v>
+        <v>0.4276179478735442</v>
       </c>
     </row>
     <row r="29">
@@ -2345,19 +2345,19 @@
         <v>1515</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2810</v>
+        <v>2824</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.46432162290773</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1255041693930741</v>
+        <v>0.1283939239524018</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.861036879984199</v>
+        <v>0.8653627182340092</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>4</v>
@@ -2366,19 +2366,19 @@
         <v>2257</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>731</v>
+        <v>665</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>3966</v>
+        <v>3898</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.4717164458845571</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1527132877062096</v>
+        <v>0.1389071293252814</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8288846987085665</v>
+        <v>0.8145503932979221</v>
       </c>
     </row>
     <row r="30">
@@ -2411,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>1966</v>
+        <v>1981</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1444827697246949</v>
@@ -2420,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.6025367778240721</v>
+        <v>0.606968011288387</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1</v>
@@ -2432,7 +2432,7 @@
         <v>0</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>2156</v>
+        <v>2534</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.09851522664669538</v>
@@ -2441,7 +2441,7 @@
         <v>0</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.4506568063063179</v>
+        <v>0.5294720168177168</v>
       </c>
     </row>
     <row r="31">
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>2104</v>
+        <v>1903</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2515598412471829</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.6447673448591685</v>
+        <v>0.5831335454013411</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>3</v>
@@ -2547,19 +2547,19 @@
         <v>1601</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>3521</v>
+        <v>3518</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.3345580184917861</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.08270876075012377</v>
+        <v>0.08233464812638688</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.7358465095706315</v>
+        <v>0.7352740156091561</v>
       </c>
     </row>
     <row r="33">
@@ -2735,7 +2735,7 @@
         <v>0</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>3465</v>
+        <v>3451</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.3450994207326977</v>
@@ -2744,7 +2744,7 @@
         <v>0</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>1</v>
+        <v>0.9959353996290234</v>
       </c>
     </row>
     <row r="36">
@@ -2889,16 +2889,16 @@
         <v>2269</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>491</v>
+        <v>44</v>
       </c>
       <c r="T38" s="5" t="n">
         <v>3465</v>
       </c>
       <c r="U38" s="6" t="n">
-        <v>0.6549005792673025</v>
+        <v>0.6549005792673024</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.1417869922463386</v>
+        <v>0.01258389526374447</v>
       </c>
       <c r="W38" s="6" t="n">
         <v>1</v>
@@ -2996,16 +2996,16 @@
         <v>0</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>8542</v>
+        <v>8463</v>
       </c>
       <c r="G40" s="6" t="n">
-        <v>0.07989114081047628</v>
+        <v>0.0798911408104763</v>
       </c>
       <c r="H40" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.2726857637837272</v>
+        <v>0.2701695233349128</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>2</v>
@@ -3017,16 +3017,16 @@
         <v>0</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>10687</v>
+        <v>10905</v>
       </c>
       <c r="N40" s="6" t="n">
-        <v>0.1494935966727477</v>
+        <v>0.1494935966727476</v>
       </c>
       <c r="O40" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.4678008461499322</v>
+        <v>0.4773128300622953</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>4</v>
@@ -3035,19 +3035,19 @@
         <v>5918</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>1379</v>
+        <v>1780</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>15557</v>
+        <v>16439</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.1092450772608241</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.02546584446760064</v>
+        <v>0.03285223133969951</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.287183128477964</v>
+        <v>0.3034704866119743</v>
       </c>
     </row>
     <row r="41">
@@ -3064,19 +3064,19 @@
         <v>17366</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>9219</v>
+        <v>9444</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>24361</v>
+        <v>24742</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>0.5543780064387607</v>
+        <v>0.5543780064387608</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.294300411157869</v>
+        <v>0.3014721801019506</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.777677164548262</v>
+        <v>0.7898526282730224</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>4</v>
@@ -3085,19 +3085,19 @@
         <v>5765</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>1510</v>
+        <v>1570</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>13166</v>
+        <v>12624</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.2523490720080624</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.06609227130212258</v>
+        <v>0.06874184689341618</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.5762748847646801</v>
+        <v>0.5525736208059866</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>11</v>
@@ -3106,19 +3106,19 @@
         <v>23131</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>13221</v>
+        <v>13698</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>34517</v>
+        <v>33514</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.4270012057553421</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.2440678797620066</v>
+        <v>0.2528684143264976</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.6371887579036368</v>
+        <v>0.6186852816014837</v>
       </c>
     </row>
     <row r="42">
@@ -3135,19 +3135,19 @@
         <v>3440</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>9448</v>
+        <v>9111</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>0.1098227004634718</v>
+        <v>0.1098227004634719</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.02746237843860662</v>
+        <v>0.02729326291652416</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.3016141306498253</v>
+        <v>0.2908445189565359</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>3</v>
@@ -3156,19 +3156,19 @@
         <v>2873</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>622</v>
+        <v>636</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>8741</v>
+        <v>8242</v>
       </c>
       <c r="N42" s="6" t="n">
-        <v>0.1257609403973132</v>
+        <v>0.1257609403973131</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.02721443543100206</v>
+        <v>0.02785399060705114</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.3825961818315833</v>
+        <v>0.3607456158458687</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>6</v>
@@ -3177,19 +3177,19 @@
         <v>6313</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>2494</v>
+        <v>2176</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>13193</v>
+        <v>13777</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1165444472230136</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.04604163572673973</v>
+        <v>0.04017001263359835</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.2435426286635885</v>
+        <v>0.2543361183276833</v>
       </c>
     </row>
     <row r="43">
@@ -3209,16 +3209,16 @@
         <v>0</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>7924</v>
+        <v>8043</v>
       </c>
       <c r="G43" s="6" t="n">
-        <v>0.07331628714615304</v>
+        <v>0.07331628714615306</v>
       </c>
       <c r="H43" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.2529678876895526</v>
+        <v>0.2567485365982885</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>5</v>
@@ -3227,19 +3227,19 @@
         <v>7072</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>2494</v>
+        <v>2398</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>13811</v>
+        <v>13686</v>
       </c>
       <c r="N43" s="6" t="n">
-        <v>0.309572121271014</v>
+        <v>0.3095721212710139</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.109149614743862</v>
+        <v>0.104965103258999</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.6045353060392969</v>
+        <v>0.5990568881801311</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>7</v>
@@ -3248,19 +3248,19 @@
         <v>9369</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>3703</v>
+        <v>3801</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>18208</v>
+        <v>17426</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.1729541326073544</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.06835079820552109</v>
+        <v>0.07017580827310857</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.3361311708964765</v>
+        <v>0.3216838273013636</v>
       </c>
     </row>
     <row r="44">
@@ -3277,19 +3277,19 @@
         <v>5720</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>1889</v>
+        <v>1748</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>14209</v>
+        <v>13338</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.182591865141138</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.06028990452482606</v>
+        <v>0.05580694027989143</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.4535979980329826</v>
+        <v>0.4257828488911845</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>3</v>
@@ -3298,19 +3298,19 @@
         <v>3720</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>696</v>
+        <v>678</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>12033</v>
+        <v>10890</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.1628242696508628</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.03045120733594935</v>
+        <v>0.02965615851497618</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.5266943161959378</v>
+        <v>0.4766709356659496</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>7</v>
@@ -3319,19 +3319,19 @@
         <v>9439</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>3672</v>
+        <v>3831</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>18276</v>
+        <v>18762</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.1742551371534658</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.0677900728499205</v>
+        <v>0.07071329920443885</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.3373847045387719</v>
+        <v>0.3463533363917382</v>
       </c>
     </row>
     <row r="45">
@@ -3470,19 +3470,19 @@
         <v>4816</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>1196</v>
+        <v>1189</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>10003</v>
+        <v>9917</v>
       </c>
       <c r="G47" s="6" t="n">
-        <v>0.2239250904810457</v>
+        <v>0.2239250904810458</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.05562631153416146</v>
+        <v>0.05527344019494831</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.465075394729848</v>
+        <v>0.4610598702432507</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>2</v>
@@ -3494,7 +3494,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>8554</v>
+        <v>8218</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.15657275374621</v>
@@ -3503,7 +3503,7 @@
         <v>0</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.4760558304849009</v>
+        <v>0.4573532464510064</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>6</v>
@@ -3512,19 +3512,19 @@
         <v>7630</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>3124</v>
+        <v>3211</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>14177</v>
+        <v>15211</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.1932690304418383</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.07912988400553322</v>
+        <v>0.08133241263822631</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.3591044322941414</v>
+        <v>0.3853002682749387</v>
       </c>
     </row>
     <row r="48">
@@ -3541,19 +3541,19 @@
         <v>6133</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>2387</v>
+        <v>2596</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>12352</v>
+        <v>12570</v>
       </c>
       <c r="G48" s="6" t="n">
-        <v>0.2851381001936926</v>
+        <v>0.2851381001936927</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.1109698144251985</v>
+        <v>0.1207014867657835</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.574289247314972</v>
+        <v>0.5844181033612589</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>9</v>
@@ -3562,19 +3562,19 @@
         <v>7545</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>3653</v>
+        <v>3733</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>11793</v>
+        <v>11938</v>
       </c>
       <c r="N48" s="6" t="n">
-        <v>0.4198941690149358</v>
+        <v>0.4198941690149357</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.2032879326717883</v>
+        <v>0.2077423371260064</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.6562700933997582</v>
+        <v>0.6643515668345759</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>14</v>
@@ -3583,19 +3583,19 @@
         <v>13678</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>8102</v>
+        <v>8217</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>19678</v>
+        <v>20337</v>
       </c>
       <c r="U48" s="6" t="n">
-        <v>0.3464736133577806</v>
+        <v>0.3464736133577805</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.2052337542009657</v>
+        <v>0.2081333903517372</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.4984528829634536</v>
+        <v>0.5151478857512074</v>
       </c>
     </row>
     <row r="49">
@@ -3615,7 +3615,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>8808</v>
+        <v>9445</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.1425837944240342</v>
@@ -3624,7 +3624,7 @@
         <v>0</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.4095125607801672</v>
+        <v>0.4391244784504801</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>4</v>
@@ -3633,19 +3633,19 @@
         <v>3160</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>7161</v>
+        <v>7039</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.1758598649244691</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.04586163227213672</v>
+        <v>0.04594036021845715</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.3985420452729182</v>
+        <v>0.3917180070206055</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>6</v>
@@ -3654,19 +3654,19 @@
         <v>6227</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>2289</v>
+        <v>2535</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>12585</v>
+        <v>12929</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.1577297160740341</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.05799200338447179</v>
+        <v>0.06422127619747238</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.3187862134111543</v>
+        <v>0.327500286461572</v>
       </c>
     </row>
     <row r="50">
@@ -3683,19 +3683,19 @@
         <v>7493</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>3543</v>
+        <v>3184</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>12582</v>
+        <v>12178</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.3483530149012273</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.164726891987747</v>
+        <v>0.1480404677102623</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.5849601089796359</v>
+        <v>0.5661735809697931</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>5</v>
@@ -3704,19 +3704,19 @@
         <v>4450</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>1796</v>
+        <v>1523</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>9270</v>
+        <v>8893</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.2476732123143851</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.09996331207390789</v>
+        <v>0.08476695075946201</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.5158728366996109</v>
+        <v>0.4949240149815857</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>12</v>
@@ -3725,19 +3725,19 @@
         <v>11943</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>6953</v>
+        <v>6538</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>18558</v>
+        <v>18540</v>
       </c>
       <c r="U50" s="6" t="n">
-        <v>0.302527640126347</v>
+        <v>0.3025276401263469</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.1761254887629574</v>
+        <v>0.1656139951177258</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.4700812601671144</v>
+        <v>0.4696404921471079</v>
       </c>
     </row>
     <row r="51">
@@ -3829,19 +3829,19 @@
         <v>3704</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>1089</v>
+        <v>1026</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>10347</v>
+        <v>9388</v>
       </c>
       <c r="G52" s="6" t="n">
-        <v>0.03412136360381401</v>
+        <v>0.034121363603814</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.01003149189862108</v>
+        <v>0.009454793442129751</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.09530768879513311</v>
+        <v>0.08648038848980545</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>4</v>
@@ -3850,19 +3850,19 @@
         <v>4480</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>1141</v>
+        <v>1065</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>13713</v>
+        <v>13211</v>
       </c>
       <c r="N52" s="6" t="n">
-        <v>0.06788975476281038</v>
+        <v>0.06788975476281037</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.01729413654765912</v>
+        <v>0.01613839703622643</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.2077857062693119</v>
+        <v>0.2001780382015587</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>7</v>
@@ -3871,19 +3871,19 @@
         <v>8185</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>3300</v>
+        <v>3620</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>18763</v>
+        <v>17801</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.0468883979815534</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.0189025679798316</v>
+        <v>0.02073745361507094</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.1074899164194992</v>
+        <v>0.101979285018292</v>
       </c>
     </row>
     <row r="53">
@@ -3900,19 +3900,19 @@
         <v>52694</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>38391</v>
+        <v>39139</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>68729</v>
+        <v>69559</v>
       </c>
       <c r="G53" s="6" t="n">
-        <v>0.4853881452378659</v>
+        <v>0.4853881452378658</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.3536348659839759</v>
+        <v>0.360525076970941</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.6330957226062459</v>
+        <v>0.6407448888351645</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>14</v>
@@ -3921,19 +3921,19 @@
         <v>17068</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>9898</v>
+        <v>9950</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>26164</v>
+        <v>26488</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.2586256810624503</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.1499788636826419</v>
+        <v>0.1507679041134311</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.3964481208201629</v>
+        <v>0.4013574567074353</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>38</v>
@@ -3942,19 +3942,19 @@
         <v>69762</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>53895</v>
+        <v>53278</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>89046</v>
+        <v>87652</v>
       </c>
       <c r="U53" s="6" t="n">
-        <v>0.3996545915699666</v>
+        <v>0.3996545915699667</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.3087548772340608</v>
+        <v>0.3052221694411867</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.5101287107826029</v>
+        <v>0.5021448329221202</v>
       </c>
     </row>
     <row r="54">
@@ -3971,19 +3971,19 @@
         <v>17988</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>9784</v>
+        <v>8931</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>29999</v>
+        <v>28913</v>
       </c>
       <c r="G54" s="6" t="n">
-        <v>0.1656992670538537</v>
+        <v>0.1656992670538536</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.09012803854566084</v>
+        <v>0.0822674934883915</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.2763370972176566</v>
+        <v>0.2663274986577306</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>15</v>
@@ -3992,19 +3992,19 @@
         <v>13254</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>7995</v>
+        <v>7710</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>22120</v>
+        <v>21631</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.2008312862060588</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.1211467030527291</v>
+        <v>0.1168282571066376</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.3351741042832903</v>
+        <v>0.3277598751785977</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>28</v>
@@ -4013,19 +4013,19 @@
         <v>31242</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>20681</v>
+        <v>21597</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>46308</v>
+        <v>45120</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.178981857099785</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.1184757658655104</v>
+        <v>0.123724807321798</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.2652945688531598</v>
+        <v>0.2584883378929023</v>
       </c>
     </row>
     <row r="55">
@@ -4042,19 +4042,19 @@
         <v>10872</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>4857</v>
+        <v>4196</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>22670</v>
+        <v>24415</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.1001441449018378</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.04474119560421597</v>
+        <v>0.03865027043066363</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.2088278479735856</v>
+        <v>0.2248952376683952</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>10</v>
@@ -4063,19 +4063,19 @@
         <v>10890</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>5371</v>
+        <v>5334</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>19886</v>
+        <v>20190</v>
       </c>
       <c r="N55" s="6" t="n">
-        <v>0.1650125647044539</v>
+        <v>0.1650125647044538</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.08138483250670514</v>
+        <v>0.08081690697400946</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.3013274851572186</v>
+        <v>0.305935194596237</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>17</v>
@@ -4084,19 +4084,19 @@
         <v>21762</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>12977</v>
+        <v>12738</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>35492</v>
+        <v>35614</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.1246693685570072</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.07434456295316844</v>
+        <v>0.07297340694573436</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.2033274837879132</v>
+        <v>0.2040299006905538</v>
       </c>
     </row>
     <row r="56">
@@ -4113,19 +4113,19 @@
         <v>23302</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>13524</v>
+        <v>13569</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>35754</v>
+        <v>35631</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>0.2146470792026287</v>
+        <v>0.2146470792026286</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.1245806874846625</v>
+        <v>0.124987141710144</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.3293463043592925</v>
+        <v>0.3282154216029717</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>24</v>
@@ -4134,19 +4134,19 @@
         <v>20303</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>13146</v>
+        <v>13105</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>29943</v>
+        <v>29613</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.3076407132642268</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.1991951913102173</v>
+        <v>0.1985708256357639</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.4537160104981279</v>
+        <v>0.4487212412128646</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>42</v>
@@ -4155,19 +4155,19 @@
         <v>43605</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>31356</v>
+        <v>31540</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>58478</v>
+        <v>58435</v>
       </c>
       <c r="U56" s="6" t="n">
-        <v>0.2498057847916878</v>
+        <v>0.2498057847916877</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.1796311194607804</v>
+        <v>0.1806864786441118</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.3350098208929416</v>
+        <v>0.3347661419762137</v>
       </c>
     </row>
     <row r="57">
